--- a/data/income_statement/3digits/total/102_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/102_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>102-Processing and preserving of fish, crustaceans and mollusks</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>102-Processing and preserving of fish, crustaceans and mollusks</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,17 +841,22 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>926933.1225200001</v>
+        <v>926933.12252</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>1070516.6937</v>
@@ -962,13 +868,13 @@
         <v>1327451.21674</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1642208.17209</v>
+        <v>1716448.9827</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2126025.9933</v>
+        <v>2165149.07172</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2531541.19887</v>
+        <v>2731195.89268</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>3326105.02939</v>
@@ -980,34 +886,39 @@
         <v>5716534.99522</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7572686.87159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7599060.79263</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>10440309.162</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>543114.5464100001</v>
+        <v>543114.54641</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>681457.4401</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>949861.4105300001</v>
+        <v>949861.41053</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>962250.1489800001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1132234.1642</v>
+        <v>1160219.02588</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1502626.19472</v>
+        <v>1503628.43533</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1882424.80409</v>
+        <v>1918438.0134</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>2408606.73987</v>
@@ -1019,13 +930,18 @@
         <v>3620988.66701</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4810392.40259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4820785.76115</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6673016.421</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>335391.88223</v>
@@ -1040,16 +956,16 @@
         <v>327652.76798</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>459073.19358</v>
+        <v>503409.24955</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>584495.75558</v>
+        <v>620389.74499</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>613352.84509</v>
+        <v>773504.11805</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>878465.57888</v>
+        <v>878465.5788800002</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1372512.7448</v>
@@ -1058,13 +974,18 @@
         <v>2056058.99772</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2704212.05884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2720164.59494</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3660527.382</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>48426.69388000001</v>
@@ -1079,13 +1000,13 @@
         <v>37548.29978</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>50900.81431</v>
+        <v>52820.70727</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>38904.043</v>
+        <v>41130.8914</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>35763.54969</v>
+        <v>39253.76123</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>39032.71064</v>
@@ -1097,13 +1018,18 @@
         <v>39487.33049</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>58082.41016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>58110.43654000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>106765.359</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>16064.61913</v>
@@ -1118,13 +1044,13 @@
         <v>20151.2827</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>26949.91592</v>
+        <v>27092.26763</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>45295.88395999999</v>
+        <v>45072.91829</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>47364.46983000001</v>
+        <v>47953.94306000001</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>77956.03960999999</v>
@@ -1136,16 +1062,21 @@
         <v>80109.64723</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>117700.53187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>117701.66597</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>235609.825</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5168.141779999999</v>
+        <v>5168.14178</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>5155.917090000001</v>
@@ -1154,19 +1085,19 @@
         <v>4912.81043</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5147.749110000001</v>
+        <v>5147.74911</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>8500.81374</v>
+        <v>8643.165449999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>17578.51861</v>
+        <v>17355.55294</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>16520.02517</v>
+        <v>17109.4984</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>41288.86251000001</v>
+        <v>41288.86251</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>30454.28338</v>
@@ -1175,13 +1106,18 @@
         <v>34093.99683</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>50768.49296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>50769.62706</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>62440.135</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>8777.154860000001</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>57072.99427</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>161779.542</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2119.32249</v>
@@ -1229,7 +1170,7 @@
         <v>2481.87009</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>560.6878</v>
+        <v>560.6877999999999</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>2211.554</v>
@@ -1255,14 +1196,19 @@
       <c r="M12" s="48" t="n">
         <v>9859.04464</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>11390.148</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>910868.50339</v>
+        <v>910868.5033900001</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>1049336.97369</v>
@@ -1274,31 +1220,36 @@
         <v>1307299.93404</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1615258.25617</v>
+        <v>1689356.71507</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2080730.10934</v>
+        <v>2120076.15343</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2484176.72904</v>
+        <v>2683241.94962</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3248148.989780001</v>
+        <v>3248148.98978</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>3809230.45585</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5636425.347990001</v>
+        <v>5636425.34799</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7454986.33972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7481359.12666</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>10204699.337</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>736328.42013</v>
@@ -1313,13 +1264,13 @@
         <v>1051834.52842</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1370215.92324</v>
+        <v>1417615.7569</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1670675.48268</v>
+        <v>1692544.77156</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1950454.88061</v>
+        <v>2073538.59721</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>2516419.83424</v>
@@ -1331,13 +1282,18 @@
         <v>4111467.9328</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5815357.09206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5839236.535139999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7510575.035</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>571064.45672</v>
@@ -1346,19 +1302,19 @@
         <v>721748.13372</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>944490.4896199999</v>
+        <v>944490.48962</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>882749.86815</v>
+        <v>882749.8681500001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1098729.34003</v>
+        <v>1140944.26774</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1327851.47424</v>
+        <v>1345899.72583</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1532378.41192</v>
+        <v>1638069.02189</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>2016156.80898</v>
@@ -1370,13 +1326,18 @@
         <v>3573706.24358</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4999030.518829999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5007335.230149999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6207010.17</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>156541.32465</v>
@@ -1391,16 +1352,16 @@
         <v>154284.33168</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>246937.97506</v>
+        <v>249848.77178</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>319907.38392</v>
+        <v>322705.1872700001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>397068.02648</v>
+        <v>409238.57298</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>467147.91839</v>
+        <v>467147.9183899999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>359494.38999</v>
@@ -1409,13 +1370,18 @@
         <v>501150.86211</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>777179.0812100001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>791723.80649</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1241769.351</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>8722.638760000002</v>
@@ -1430,13 +1396,13 @@
         <v>12843.16489</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>18003.17938</v>
+        <v>20277.28861</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>13138.63981</v>
+        <v>14161.87375</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>14569.14638</v>
+        <v>19791.70651</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>23487.5616</v>
@@ -1448,13 +1414,18 @@
         <v>30430.2611</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>37556.76723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>38586.77371</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>57836.479</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>1590.72479</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>3959.035</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>174540.08326</v>
@@ -1508,16 +1484,16 @@
         <v>255465.40562</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>245042.33293</v>
+        <v>271740.9581699999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>410054.62666</v>
+        <v>427531.38187</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>533721.84843</v>
+        <v>609703.3524099999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>731729.1555400001</v>
+        <v>731729.1555399999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>961509.89724</v>
@@ -1526,19 +1502,24 @@
         <v>1524957.41519</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1639629.24766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1642122.59152</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2694124.302</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>98280.18395000001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>97796.57035000001</v>
+        <v>97796.57034999999</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>112440.5789</v>
@@ -1547,37 +1528,42 @@
         <v>127045.97073</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>159824.39807</v>
+        <v>173818.75136</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>202645.93499</v>
+        <v>210228.98894</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>226228.37902</v>
+        <v>256246.53187</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>310252.78245</v>
+        <v>310254.78445</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>372498.5431899999</v>
+        <v>372498.5431900001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>507356.03136</v>
+        <v>507372.58965</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>620346.27487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>623151.67424</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>776326.476</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>494.39461</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>504.17014</v>
+        <v>504.1701399999999</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>607.25287</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>5161.040440000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>5702.063</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>56628.94689</v>
@@ -1622,16 +1613,16 @@
         <v>55027.07815000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>61880.14245</v>
+        <v>61880.14244999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>80801.76112000001</v>
+        <v>92494.17128</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>116144.67115</v>
+        <v>124591.10441</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>129717.88425</v>
+        <v>157718.81064</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>195168.19431</v>
@@ -1643,13 +1634,18 @@
         <v>346518.2544799999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>422438.27594</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>423804.7794100001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>540568.594</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>41156.84245</v>
@@ -1661,34 +1657,39 @@
         <v>56806.24788</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>64267.44455000001</v>
+        <v>64267.44455</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>77261.62862</v>
+        <v>79563.57175</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>85073.58959</v>
+        <v>84210.21028</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>94530.25082999999</v>
+        <v>96547.47729</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>112136.70718</v>
+        <v>112138.70918</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>123589.75771</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>157277.77315</v>
+        <v>157294.33144</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>192746.95849</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>194185.85439</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>230055.819</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>76259.89931000001</v>
@@ -1703,52 +1704,57 @@
         <v>128419.43489</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>85217.93485999999</v>
+        <v>97922.20681</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>207408.69167</v>
+        <v>217302.39293</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>307493.46941</v>
+        <v>353456.82054</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>421476.37309</v>
+        <v>421474.37109</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>589011.3540499998</v>
+        <v>589011.35405</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1017601.38383</v>
+        <v>1017584.82554</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1019282.97279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1018970.91728</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1917797.826</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>185200.34356</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>88708.04407</v>
+        <v>88708.04406999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>79163.11478999999</v>
+        <v>79163.11479000001</v>
       </c>
       <c r="F25" s="47" t="n">
         <v>96773.35109</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>232115.68619</v>
+        <v>236108.16745</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>154750.02851</v>
+        <v>157278.73532</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>234616.37252</v>
+        <v>264580.8953</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>258956.91783</v>
@@ -1760,13 +1766,18 @@
         <v>1226100.86644</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>641270.7953100001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>641668.27651</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1663601.809</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>5502.28858</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>5224.725</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>18115.886</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>4975.936610000001</v>
@@ -1859,16 +1880,16 @@
         <v>3490.39037</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2505.03273</v>
+        <v>2700.08795</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6866.90554</v>
+        <v>6822.79416</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>6048.666319999999</v>
+        <v>10348.73457</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6722.26536</v>
+        <v>6722.265359999999</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>18246.76821</v>
@@ -1877,13 +1898,18 @@
         <v>29156.91728</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>46282.78027999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>46316.08973</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>48975.069</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>150.48861</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>54.92413000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>158.396</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>967.4341899999999</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>16542.02575</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>7820.506</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>116.1532</v>
@@ -1973,7 +2009,7 @@
         <v>51.82692000000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>70.54773</v>
+        <v>70.54773000000002</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>37.54459</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1119.59996</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>99.30800000000001</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>167824.06984</v>
@@ -2015,13 +2056,13 @@
         <v>70861.86094</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>158567.78694</v>
+        <v>162134.37747</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>112152.99893</v>
+        <v>114241.40328</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>195713.56695</v>
+        <v>219783.12051</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>199320.79833</v>
@@ -2033,13 +2074,18 @@
         <v>1102009.2833</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>486008.07814</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>486131.37058</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1465204.574</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>563.4684</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>20196.04619</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>13433.542</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>88.015</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>10602.79271</v>
@@ -2126,19 +2182,19 @@
         <v>13440.01214</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>8682.259969999999</v>
+        <v>8682.259970000001</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>20343.09309</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>68817.54587</v>
+        <v>69048.38137999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>33298.90963</v>
+        <v>33783.32347</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>21491.49994</v>
+        <v>23086.40091</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>25483.3151</v>
@@ -2150,19 +2206,24 @@
         <v>64926.46894</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>60340.32728</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>60581.20658999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>109706.513</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>86253.27427000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>60741.08005999999</v>
+        <v>60741.08006</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>108337.56637</v>
@@ -2171,13 +2232,13 @@
         <v>64899.42108</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>148129.01467</v>
+        <v>151909.86299</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>134166.01001</v>
+        <v>136174.04358</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>242413.09256</v>
+        <v>278067.93176</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>328146.99349</v>
@@ -2189,13 +2250,18 @@
         <v>1467375.67211</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>700354.0727500001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>700391.4056700001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2023983.059</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>68.52318</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>10286.29214</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>669.3390000000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>13009.34474</v>
@@ -2258,7 +2329,7 @@
         <v>4732.356900000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>8254.253949999998</v>
+        <v>8254.25395</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>13727.24527</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>12542.10006</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>17778.809</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1.17804</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>333.29107</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>60320.00416</v>
@@ -2324,16 +2405,16 @@
         <v>99913.47495</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>41814.57011000002</v>
+        <v>41814.57011000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>126693.02156</v>
+        <v>130465.45405</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>104557.52474</v>
+        <v>106563.725</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>225669.72286</v>
+        <v>261292.11135</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>290850.44215</v>
@@ -2345,13 +2426,18 @@
         <v>1382958.5922</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>643257.8379299999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>643295.1708499999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1956958.953</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>19198.89063</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>15328.1</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>4.115</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>12854.22415</v>
@@ -2444,16 +2540,16 @@
         <v>19034.49556</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>17124.88455</v>
+        <v>17133.30038</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>21504.44219</v>
+        <v>21506.2755</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7804.008049999999</v>
+        <v>7836.45876</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>7749.86042</v>
+        <v>7749.860420000001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>10748.06334</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>14735.66092</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>33243.743</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>74272.90476999999</v>
@@ -2480,16 +2581,16 @@
         <v>78785.01383</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>54645.28071</v>
+        <v>54645.28070999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>80976.91596000001</v>
+        <v>84931.51559000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>71204.07281999999</v>
+        <v>76777.60123</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>90362.25105000001</v>
+        <v>95349.07693000001</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>114465.44369</v>
@@ -2501,13 +2602,18 @@
         <v>380280.6296</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>309050.68479</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>309167.34073</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>447321.397</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>50146.6459</v>
@@ -2522,13 +2628,13 @@
         <v>50983.68874000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>56896.98583</v>
+        <v>60851.58545999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>59026.44577999999</v>
+        <v>64599.97419</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>89709.82875</v>
+        <v>94696.65462999999</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>113915.11336</v>
@@ -2540,13 +2646,18 @@
         <v>290855.69965</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>279557.17229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>279673.82823</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>396465.453</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>24126.25887</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>29493.5125</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>50855.944</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>100934.06383</v>
@@ -2594,37 +2710,42 @@
         <v>61872.4757</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>54897.48586</v>
+        <v>54897.48586000001</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>105648.08419</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>88227.69042</v>
+        <v>97188.99568000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>156788.63735</v>
+        <v>161629.48344</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>209334.49832</v>
+        <v>244620.70715</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>237820.85374</v>
+        <v>237818.85174</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>391014.68612</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>396045.94856</v>
+        <v>396029.39027</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>651149.01056</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>651080.44739</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1110095.179</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>10906.52076</v>
@@ -2639,16 +2760,16 @@
         <v>10485.16696</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>42787.54339</v>
+        <v>42919.66356</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>8211.54118</v>
+        <v>8719.4331</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>9382.464620000001</v>
+        <v>9880.239659999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>10369.96719</v>
+        <v>10370.03019</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>19289.39556</v>
@@ -2657,13 +2778,18 @@
         <v>30024.06423</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>83780.40789</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>84203.10335999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>75955.766</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>9.46373</v>
@@ -2678,7 +2804,7 @@
         <v>319.05707</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>51.28411999999999</v>
+        <v>66.91086</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>58.02222</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>393.2023</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>70.226</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>10897.05703</v>
@@ -2717,16 +2848,16 @@
         <v>10166.10989</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>42736.25927</v>
+        <v>42852.7527</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>8153.51896</v>
+        <v>8661.410879999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>9302.89343</v>
+        <v>9800.668470000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>9858.577209999999</v>
+        <v>9858.64021</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>19202.4114</v>
@@ -2735,13 +2866,18 @@
         <v>29743.67675</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>83387.20559</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>83809.90106000002</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>75885.53999999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>15505.00605</v>
@@ -2756,31 +2892,36 @@
         <v>12618.86279</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>9723.92951</v>
+        <v>9968.707339999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>20074.66123</v>
+        <v>17004.7629</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>19077.11176</v>
+        <v>19158.04035</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>23672.10552</v>
+        <v>23675.74941</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>50213.01974000001</v>
+        <v>50213.01974</v>
       </c>
       <c r="L51" s="47" t="n">
         <v>40638.65418</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>52576.06832999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>53008.51561</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>78684.15300000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>5439.269600000001</v>
@@ -2801,7 +2942,7 @@
         <v>5076.88647</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4318.541569999999</v>
+        <v>4318.54157</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>2916.81914</v>
@@ -2813,13 +2954,18 @@
         <v>4247.666190000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>4203.281400000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4227.88845</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>14559.333</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>5565.141519999999</v>
@@ -2834,13 +2980,13 @@
         <v>2535.11153</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>610.13765</v>
+        <v>663.46444</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2906.906309999999</v>
+        <v>2886.37419</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3010.93933</v>
+        <v>3042.87761</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>1193.80572</v>
@@ -2852,37 +2998,42 @@
         <v>1820.40044</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1443.77405</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1564.20759</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6812.668</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4500.59493</v>
+        <v>4500.594929999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7472.31086</v>
+        <v>7472.310860000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>39458.1697</v>
+        <v>39458.16970000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5490.415779999999</v>
+        <v>5490.41578</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6777.43956</v>
+        <v>6968.890600000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>12090.86845</v>
+        <v>9041.502239999998</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11747.63086</v>
+        <v>11796.62117</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>19561.48066</v>
+        <v>19565.12455</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>17940.65736</v>
@@ -2891,13 +3042,18 @@
         <v>34570.58755</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>46929.01287999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>47216.41957</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>57312.152</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>96335.57853999999</v>
@@ -2912,31 +3068,36 @@
         <v>103514.38836</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>121291.3043</v>
+        <v>130139.9519</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>144925.5173</v>
+        <v>153344.15364</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>199639.85118</v>
+        <v>235342.90646</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>224518.71541</v>
+        <v>224513.13252</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>360091.06194</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>385431.35861</v>
+        <v>385414.80032</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>682353.3501200001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>682275.0351399999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1107366.792</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>7088.81074</v>
@@ -2951,13 +3112,13 @@
         <v>24105.64056</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>7965.11887</v>
+        <v>9789.82467</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>32672.22389</v>
+        <v>33182.80176</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>42744.66933</v>
+        <v>49885.28039</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>38219.07521</v>
@@ -2969,49 +3130,57 @@
         <v>86536.55618000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>105306.26743</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>105591.33985</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>166951.526</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>89246.76780000002</v>
+        <v>89246.7678</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>52649.10962</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-1252.263909999998</v>
+        <v>-1252.263909999999</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>79408.74780000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>113326.18543</v>
+        <v>120350.12723</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>112253.29341</v>
+        <v>120161.35188</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>156895.18185</v>
+        <v>185457.62607</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>186299.6402</v>
+        <v>186294.05731</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>292468.3415800001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>298894.8024299999</v>
+        <v>298878.24414</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>577047.08269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>576683.6952900001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>940415.2659999999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>91</v>
@@ -3044,28 +3216,31 @@
         <v>104</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>117</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>158</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>175</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>